--- a/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_社員情報一覧画面（陶）.xlsx
+++ b/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_社員情報一覧画面（陶）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf4bb4a0a505561/桌面/新しいフォルダー/02_詳細設計書/01_詳細設計書/チーム1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C64B039-7E08-4437-8B00-3D73C36B0A55}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E446F5-12D8-4D18-ADE8-9262097EF339}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="160">
   <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
@@ -230,16 +230,6 @@
     <t>・概要</t>
     <rPh sb="1" eb="3">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>・I/O関連図</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1313,18 +1303,25 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社員情報一覧</t>
-    <rPh sb="0" eb="4">
-      <t>シャインジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
+    <t>SELECT ID,NYUSYA_DATE,EMPLOYEE_NAME,SEX,AGE,MAIL_ADDRESS FROM T_EMPLOYEE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>SELECT ID,NYUSYA_DATE,EMPLOYEE_NAME,SEX,AGE,MAIL_ADDRESS FROM T_EMPLOYEE</t>
-    <phoneticPr fontId="2"/>
+    <t>・IO関連図</t>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -1791,6 +1788,36 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1848,36 +1875,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1986,20 +1983,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2064,14 +2055,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4779,72 +4776,72 @@
     </row>
     <row r="4" spans="1:176" ht="15" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
       <c r="AF4" s="13"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
       <c r="AF5" s="13"/>
     </row>
     <row r="6" spans="1:176" ht="15" customHeight="1">
@@ -5016,124 +5013,124 @@
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="106" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="106" t="s">
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="106" t="s">
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="106" t="s">
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="108"/>
+      <c r="AE11" s="120"/>
       <c r="AF11" s="13"/>
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="109" t="s">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="115" t="s">
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="116"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="115" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="109" t="s">
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="129"/>
+      <c r="AB12" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC12" s="129"/>
+      <c r="AD12" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="AE12" s="111"/>
+      <c r="AE12" s="123"/>
       <c r="AF12" s="13"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="120"/>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="114"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="131"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="130"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="126"/>
       <c r="AF13" s="13"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
@@ -5338,630 +5335,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="102" t="s">
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="102" t="s">
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="102" t="s">
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="104"/>
+      <c r="AD20" s="115"/>
+      <c r="AE20" s="116"/>
       <c r="AF20" s="13"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="121" t="s">
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124" t="s">
-        <v>153</v>
-      </c>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="125"/>
-      <c r="U21" s="125"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="125"/>
-      <c r="X21" s="125"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="125"/>
-      <c r="AA21" s="125"/>
-      <c r="AB21" s="126"/>
-      <c r="AC21" s="121" t="s">
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AD21" s="122"/>
-      <c r="AE21" s="123"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="110"/>
       <c r="AF21" s="13"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
-      <c r="AA22" s="131"/>
-      <c r="AB22" s="132"/>
-      <c r="AC22" s="130"/>
-      <c r="AD22" s="131"/>
-      <c r="AE22" s="132"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="103"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="103"/>
+      <c r="X22" s="103"/>
+      <c r="Y22" s="103"/>
+      <c r="Z22" s="103"/>
+      <c r="AA22" s="103"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="104"/>
       <c r="AF22" s="13"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
-      <c r="Y23" s="131"/>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="131"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="130"/>
-      <c r="AD23" s="131"/>
-      <c r="AE23" s="132"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="103"/>
+      <c r="V23" s="103"/>
+      <c r="W23" s="103"/>
+      <c r="X23" s="103"/>
+      <c r="Y23" s="103"/>
+      <c r="Z23" s="103"/>
+      <c r="AA23" s="103"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="103"/>
+      <c r="AE23" s="104"/>
       <c r="AF23" s="13"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="131"/>
-      <c r="AB24" s="132"/>
-      <c r="AC24" s="130"/>
-      <c r="AD24" s="131"/>
-      <c r="AE24" s="132"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="103"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="104"/>
       <c r="AF24" s="13"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="130"/>
-      <c r="AD25" s="131"/>
-      <c r="AE25" s="132"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="103"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="103"/>
+      <c r="Y25" s="103"/>
+      <c r="Z25" s="103"/>
+      <c r="AA25" s="103"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="103"/>
+      <c r="AE25" s="104"/>
       <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="130"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="132"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="104"/>
       <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="131"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="130"/>
-      <c r="AD27" s="131"/>
-      <c r="AE27" s="132"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="103"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="103"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="104"/>
       <c r="AF27" s="13"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="131"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="131"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="131"/>
-      <c r="X28" s="131"/>
-      <c r="Y28" s="131"/>
-      <c r="Z28" s="131"/>
-      <c r="AA28" s="131"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="130"/>
-      <c r="AD28" s="131"/>
-      <c r="AE28" s="132"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="103"/>
+      <c r="Z28" s="103"/>
+      <c r="AA28" s="103"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="103"/>
+      <c r="AE28" s="104"/>
       <c r="AF28" s="13"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="131"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="131"/>
-      <c r="Y29" s="131"/>
-      <c r="Z29" s="131"/>
-      <c r="AA29" s="131"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="130"/>
-      <c r="AD29" s="131"/>
-      <c r="AE29" s="132"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="104"/>
       <c r="AF29" s="13"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="131"/>
-      <c r="S30" s="131"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="131"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="131"/>
-      <c r="X30" s="131"/>
-      <c r="Y30" s="131"/>
-      <c r="Z30" s="131"/>
-      <c r="AA30" s="131"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="130"/>
-      <c r="AD30" s="131"/>
-      <c r="AE30" s="132"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="104"/>
       <c r="AF30" s="13"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="131"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
-      <c r="Y31" s="131"/>
-      <c r="Z31" s="131"/>
-      <c r="AA31" s="131"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="131"/>
-      <c r="AE31" s="132"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="103"/>
+      <c r="AE31" s="104"/>
       <c r="AF31" s="13"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="130"/>
-      <c r="AD32" s="131"/>
-      <c r="AE32" s="132"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="103"/>
+      <c r="AA32" s="103"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="104"/>
       <c r="AF32" s="13"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="131"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="130"/>
-      <c r="AD33" s="131"/>
-      <c r="AE33" s="132"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="102"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="104"/>
       <c r="AF33" s="13"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="12"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="131"/>
-      <c r="L34" s="131"/>
-      <c r="M34" s="131"/>
-      <c r="N34" s="131"/>
-      <c r="O34" s="131"/>
-      <c r="P34" s="131"/>
-      <c r="Q34" s="131"/>
-      <c r="R34" s="131"/>
-      <c r="S34" s="131"/>
-      <c r="T34" s="131"/>
-      <c r="U34" s="131"/>
-      <c r="V34" s="131"/>
-      <c r="W34" s="131"/>
-      <c r="X34" s="131"/>
-      <c r="Y34" s="131"/>
-      <c r="Z34" s="131"/>
-      <c r="AA34" s="131"/>
-      <c r="AB34" s="132"/>
-      <c r="AC34" s="130"/>
-      <c r="AD34" s="131"/>
-      <c r="AE34" s="132"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="103"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="103"/>
+      <c r="AA34" s="103"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="102"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="104"/>
       <c r="AF34" s="13"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="12"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="131"/>
-      <c r="O35" s="131"/>
-      <c r="P35" s="131"/>
-      <c r="Q35" s="131"/>
-      <c r="R35" s="131"/>
-      <c r="S35" s="131"/>
-      <c r="T35" s="131"/>
-      <c r="U35" s="131"/>
-      <c r="V35" s="131"/>
-      <c r="W35" s="131"/>
-      <c r="X35" s="131"/>
-      <c r="Y35" s="131"/>
-      <c r="Z35" s="131"/>
-      <c r="AA35" s="131"/>
-      <c r="AB35" s="132"/>
-      <c r="AC35" s="130"/>
-      <c r="AD35" s="131"/>
-      <c r="AE35" s="132"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103"/>
+      <c r="U35" s="103"/>
+      <c r="V35" s="103"/>
+      <c r="W35" s="103"/>
+      <c r="X35" s="103"/>
+      <c r="Y35" s="103"/>
+      <c r="Z35" s="103"/>
+      <c r="AA35" s="103"/>
+      <c r="AB35" s="104"/>
+      <c r="AC35" s="102"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="104"/>
       <c r="AF35" s="13"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="12"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="131"/>
-      <c r="R36" s="131"/>
-      <c r="S36" s="131"/>
-      <c r="T36" s="131"/>
-      <c r="U36" s="131"/>
-      <c r="V36" s="131"/>
-      <c r="W36" s="131"/>
-      <c r="X36" s="131"/>
-      <c r="Y36" s="131"/>
-      <c r="Z36" s="131"/>
-      <c r="AA36" s="131"/>
-      <c r="AB36" s="132"/>
-      <c r="AC36" s="130"/>
-      <c r="AD36" s="131"/>
-      <c r="AE36" s="132"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="103"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="102"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="104"/>
       <c r="AF36" s="13"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="12"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="131"/>
-      <c r="O37" s="131"/>
-      <c r="P37" s="131"/>
-      <c r="Q37" s="131"/>
-      <c r="R37" s="131"/>
-      <c r="S37" s="131"/>
-      <c r="T37" s="131"/>
-      <c r="U37" s="131"/>
-      <c r="V37" s="131"/>
-      <c r="W37" s="131"/>
-      <c r="X37" s="131"/>
-      <c r="Y37" s="131"/>
-      <c r="Z37" s="131"/>
-      <c r="AA37" s="131"/>
-      <c r="AB37" s="132"/>
-      <c r="AC37" s="130"/>
-      <c r="AD37" s="131"/>
-      <c r="AE37" s="132"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="103"/>
+      <c r="T37" s="103"/>
+      <c r="U37" s="103"/>
+      <c r="V37" s="103"/>
+      <c r="W37" s="103"/>
+      <c r="X37" s="103"/>
+      <c r="Y37" s="103"/>
+      <c r="Z37" s="103"/>
+      <c r="AA37" s="103"/>
+      <c r="AB37" s="104"/>
+      <c r="AC37" s="102"/>
+      <c r="AD37" s="103"/>
+      <c r="AE37" s="104"/>
       <c r="AF37" s="13"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -6000,74 +5997,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="J20:AB20"/>
@@ -6083,6 +6012,74 @@
     <mergeCell ref="M12:AA13"/>
     <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6094,7 +6091,7 @@
   <dimension ref="A1:FV44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection sqref="A1:AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
@@ -6334,52 +6331,52 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:178">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="106" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="106" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="106" t="s">
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="108"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="120"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="106" t="s">
+      <c r="AG2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="108"/>
+      <c r="AH2" s="120"/>
     </row>
     <row r="3" spans="1:178">
       <c r="A3" s="133" t="str">
@@ -6424,7 +6421,7 @@
       <c r="AC3" s="138"/>
       <c r="AD3" s="134"/>
       <c r="AE3" s="133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF3" s="134"/>
       <c r="AG3" s="133" t="str">
@@ -6728,7 +6725,7 @@
     <row r="8" spans="1:178" ht="12.75" customHeight="1">
       <c r="A8" s="26"/>
       <c r="B8" s="27" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -6766,7 +6763,7 @@
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -6804,7 +6801,7 @@
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -6842,7 +6839,7 @@
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -6880,7 +6877,7 @@
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -6918,7 +6915,7 @@
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -6956,7 +6953,7 @@
     <row r="14" spans="1:178" ht="12.75" customHeight="1">
       <c r="A14" s="26"/>
       <c r="B14" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -7029,7 +7026,7 @@
     </row>
     <row r="16" spans="1:178" ht="12.75" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -7068,7 +7065,7 @@
     <row r="17" spans="1:34" ht="12.75" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -7107,7 +7104,7 @@
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -7145,7 +7142,7 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -7183,7 +7180,7 @@
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -7221,7 +7218,7 @@
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -7259,7 +7256,7 @@
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -7984,7 +7981,7 @@
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
@@ -8187,7 +8184,7 @@
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
       <c r="A1" s="137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -8223,49 +8220,49 @@
       <c r="AG1" s="137"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="106" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="106" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="108"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="120"/>
       <c r="AD2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="22"/>
-      <c r="AF2" s="106" t="s">
+      <c r="AF2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="108"/>
+      <c r="AG2" s="120"/>
     </row>
     <row r="3" spans="1:177" ht="12">
       <c r="A3" s="133" t="str">
@@ -8307,11 +8304,11 @@
       <c r="AB3" s="138"/>
       <c r="AC3" s="134"/>
       <c r="AD3" s="133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AE3" s="134"/>
       <c r="AF3" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG3" s="141"/>
     </row>
@@ -9646,7 +9643,7 @@
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
       <c r="A41" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -9788,16 +9785,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9810,7 +9807,7 @@
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AN25" sqref="AN25"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
@@ -10013,7 +10010,7 @@
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
       <c r="A1" s="137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -10049,49 +10046,49 @@
       <c r="AG1" s="137"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="106" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="106" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="108"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="120"/>
       <c r="AD2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="22"/>
-      <c r="AF2" s="106" t="s">
+      <c r="AF2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="108"/>
+      <c r="AG2" s="120"/>
     </row>
     <row r="3" spans="1:177" ht="12">
       <c r="A3" s="133" t="str">
@@ -10133,11 +10130,11 @@
       <c r="AB3" s="138"/>
       <c r="AC3" s="134"/>
       <c r="AD3" s="133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AE3" s="134"/>
       <c r="AF3" s="133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG3" s="134"/>
     </row>
@@ -10394,13 +10391,13 @@
       <c r="A7" s="12"/>
       <c r="B7" s="50"/>
       <c r="C7" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
@@ -10410,7 +10407,7 @@
       <c r="M7" s="50"/>
       <c r="N7" s="50"/>
       <c r="O7" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P7" s="50"/>
       <c r="Q7" s="50"/>
@@ -10469,21 +10466,21 @@
       <c r="A9" s="12"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
       <c r="G9" s="51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="53"/>
       <c r="J9" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="52"/>
       <c r="M9" s="53"/>
@@ -10648,41 +10645,41 @@
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="146"/>
       <c r="D14" s="144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="145"/>
       <c r="F14" s="145"/>
       <c r="G14" s="146"/>
       <c r="H14" s="144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="146"/>
       <c r="K14" s="144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="147"/>
       <c r="M14" s="148"/>
       <c r="N14" s="144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O14" s="148"/>
       <c r="P14" s="144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="145"/>
       <c r="R14" s="146"/>
       <c r="S14" s="144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T14" s="145"/>
       <c r="U14" s="146"/>
       <c r="V14" s="144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W14" s="147"/>
       <c r="X14" s="147"/>
@@ -10706,37 +10703,37 @@
       <c r="B15" s="149"/>
       <c r="C15" s="150"/>
       <c r="D15" s="151" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="152"/>
       <c r="F15" s="152"/>
       <c r="G15" s="153"/>
       <c r="H15" s="154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="155"/>
       <c r="J15" s="156"/>
       <c r="K15" s="151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="152"/>
       <c r="M15" s="153"/>
       <c r="N15" s="151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O15" s="153"/>
       <c r="P15" s="151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="152"/>
       <c r="R15" s="153"/>
       <c r="S15" s="59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T15" s="60"/>
       <c r="U15" s="61"/>
       <c r="V15" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" s="155"/>
       <c r="X15" s="155"/>
@@ -10745,7 +10742,7 @@
       <c r="AA15" s="155"/>
       <c r="AB15" s="156"/>
       <c r="AC15" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD15" s="9"/>
       <c r="AG15" s="57"/>
@@ -11606,7 +11603,7 @@
       <c r="AA41" s="69"/>
       <c r="AB41" s="71"/>
       <c r="AC41" s="72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD41" s="9"/>
       <c r="AG41" s="57"/>
@@ -11701,6 +11698,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="B15:C15"/>
@@ -11716,16 +11723,6 @@
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P14:R14"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11789,7 +11786,7 @@
   <dimension ref="A1:FV23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AH4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
@@ -11992,7 +11989,7 @@
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
       <c r="A1" s="137" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -12029,52 +12026,52 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="106" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="106" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="106" t="s">
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="108"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="120"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="106" t="s">
+      <c r="AG2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="108"/>
+      <c r="AH2" s="120"/>
     </row>
     <row r="3" spans="1:178" ht="12">
       <c r="A3" s="133" t="str">
@@ -12111,7 +12108,7 @@
       <c r="W3" s="138"/>
       <c r="X3" s="134"/>
       <c r="Y3" s="133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z3" s="138"/>
       <c r="AA3" s="138"/>
@@ -12119,7 +12116,7 @@
       <c r="AC3" s="138"/>
       <c r="AD3" s="134"/>
       <c r="AE3" s="133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF3" s="134"/>
       <c r="AG3" s="133" t="str">
@@ -12168,41 +12165,41 @@
       <c r="A5" s="32"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="34"/>
       <c r="F5" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="H5" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="I5" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="J5" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="K5" s="32" t="s">
         <v>70</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>71</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="O5" s="34"/>
       <c r="P5" s="75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
       <c r="T5" s="34"/>
       <c r="U5" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V5" s="33"/>
       <c r="W5" s="33"/>
@@ -12211,7 +12208,7 @@
       <c r="Z5" s="33"/>
       <c r="AA5" s="34"/>
       <c r="AB5" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC5" s="33"/>
       <c r="AD5" s="33"/>
@@ -12366,20 +12363,20 @@
     </row>
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="89"/>
       <c r="C6" s="89"/>
       <c r="D6" s="89"/>
       <c r="E6" s="90"/>
       <c r="F6" s="91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="97">
         <v>10</v>
       </c>
       <c r="H6" s="91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
@@ -12401,7 +12398,7 @@
       <c r="Z6" s="89"/>
       <c r="AA6" s="90"/>
       <c r="AB6" s="160" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC6" s="161"/>
       <c r="AD6" s="161"/>
@@ -12412,20 +12409,20 @@
     </row>
     <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="89"/>
       <c r="C7" s="89"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
       <c r="F7" s="91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="97"/>
       <c r="H7" s="91"/>
       <c r="I7" s="91"/>
       <c r="J7" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K7" s="88"/>
       <c r="L7" s="89"/>
@@ -12445,7 +12442,7 @@
       <c r="Z7" s="89"/>
       <c r="AA7" s="90"/>
       <c r="AB7" s="160" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC7" s="161"/>
       <c r="AD7" s="161"/>
@@ -12456,20 +12453,20 @@
     </row>
     <row r="8" spans="1:178" ht="12.75" customHeight="1">
       <c r="A8" s="88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
       <c r="E8" s="90"/>
       <c r="F8" s="91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="91"/>
       <c r="I8" s="91"/>
       <c r="J8" s="91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="88"/>
       <c r="L8" s="89"/>
@@ -12489,7 +12486,7 @@
       <c r="Z8" s="89"/>
       <c r="AA8" s="90"/>
       <c r="AB8" s="160" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC8" s="161"/>
       <c r="AD8" s="161"/>
@@ -12500,7 +12497,7 @@
     </row>
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="157" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="158"/>
       <c r="C9" s="158"/>
@@ -12538,7 +12535,7 @@
     </row>
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="157" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="158"/>
       <c r="C10" s="158"/>
@@ -12576,7 +12573,7 @@
     </row>
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="157" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="158"/>
       <c r="C11" s="158"/>
@@ -12614,7 +12611,7 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="157" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="158"/>
       <c r="C12" s="158"/>
@@ -12652,14 +12649,14 @@
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="160" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="161"/>
       <c r="C13" s="161"/>
       <c r="D13" s="161"/>
       <c r="E13" s="162"/>
       <c r="F13" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="98"/>
       <c r="H13" s="76"/>
@@ -12676,7 +12673,7 @@
       <c r="S13" s="36"/>
       <c r="T13" s="37"/>
       <c r="U13" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V13" s="36"/>
       <c r="W13" s="36"/>
@@ -12694,39 +12691,39 @@
     </row>
     <row r="14" spans="1:178" ht="12.75" customHeight="1">
       <c r="A14" s="157" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="158"/>
       <c r="C14" s="158"/>
       <c r="D14" s="158"/>
       <c r="E14" s="159"/>
       <c r="F14" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="98">
         <v>10</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I14" s="76"/>
       <c r="J14" s="76"/>
       <c r="K14" s="157" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L14" s="158"/>
       <c r="M14" s="158"/>
       <c r="N14" s="158"/>
       <c r="O14" s="159"/>
       <c r="P14" s="157" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="158"/>
       <c r="R14" s="158"/>
       <c r="S14" s="158"/>
       <c r="T14" s="159"/>
       <c r="U14" s="157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V14" s="158"/>
       <c r="W14" s="158"/>
@@ -12744,39 +12741,39 @@
     </row>
     <row r="15" spans="1:178" ht="12.75" customHeight="1">
       <c r="A15" s="157" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="158"/>
       <c r="C15" s="158"/>
       <c r="D15" s="158"/>
       <c r="E15" s="159"/>
       <c r="F15" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G15" s="98">
         <v>8</v>
       </c>
       <c r="H15" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I15" s="76"/>
       <c r="J15" s="76"/>
       <c r="K15" s="157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L15" s="158"/>
       <c r="M15" s="158"/>
       <c r="N15" s="158"/>
       <c r="O15" s="159"/>
       <c r="P15" s="157" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="158"/>
       <c r="R15" s="158"/>
       <c r="S15" s="158"/>
       <c r="T15" s="159"/>
       <c r="U15" s="157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V15" s="158"/>
       <c r="W15" s="158"/>
@@ -12794,39 +12791,39 @@
     </row>
     <row r="16" spans="1:178" ht="12.75" customHeight="1">
       <c r="A16" s="157" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="158"/>
       <c r="C16" s="158"/>
       <c r="D16" s="158"/>
       <c r="E16" s="159"/>
       <c r="F16" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="98">
         <v>50</v>
       </c>
       <c r="H16" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I16" s="76"/>
       <c r="J16" s="76"/>
       <c r="K16" s="157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L16" s="158"/>
       <c r="M16" s="158"/>
       <c r="N16" s="158"/>
       <c r="O16" s="159"/>
       <c r="P16" s="157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="158"/>
       <c r="R16" s="158"/>
       <c r="S16" s="158"/>
       <c r="T16" s="159"/>
       <c r="U16" s="157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V16" s="158"/>
       <c r="W16" s="158"/>
@@ -12844,39 +12841,39 @@
     </row>
     <row r="17" spans="1:34" ht="12.75" customHeight="1">
       <c r="A17" s="157" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="158"/>
       <c r="C17" s="158"/>
       <c r="D17" s="158"/>
       <c r="E17" s="159"/>
       <c r="F17" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G17" s="98">
         <v>3</v>
       </c>
       <c r="H17" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L17" s="158"/>
       <c r="M17" s="158"/>
       <c r="N17" s="158"/>
       <c r="O17" s="159"/>
       <c r="P17" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="158"/>
       <c r="R17" s="158"/>
       <c r="S17" s="158"/>
       <c r="T17" s="159"/>
       <c r="U17" s="157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V17" s="158"/>
       <c r="W17" s="158"/>
@@ -12894,39 +12891,39 @@
     </row>
     <row r="18" spans="1:34" ht="12.75" customHeight="1">
       <c r="A18" s="157" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="158"/>
       <c r="C18" s="158"/>
       <c r="D18" s="158"/>
       <c r="E18" s="159"/>
       <c r="F18" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="98">
         <v>3</v>
       </c>
       <c r="H18" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L18" s="158"/>
       <c r="M18" s="158"/>
       <c r="N18" s="158"/>
       <c r="O18" s="159"/>
       <c r="P18" s="157" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="158"/>
       <c r="R18" s="158"/>
       <c r="S18" s="158"/>
       <c r="T18" s="159"/>
       <c r="U18" s="157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V18" s="158"/>
       <c r="W18" s="158"/>
@@ -12944,39 +12941,39 @@
     </row>
     <row r="19" spans="1:34" ht="12.75" customHeight="1">
       <c r="A19" s="157" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="158"/>
       <c r="C19" s="158"/>
       <c r="D19" s="158"/>
       <c r="E19" s="159"/>
       <c r="F19" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" s="98">
         <v>10</v>
       </c>
       <c r="H19" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I19" s="76"/>
       <c r="J19" s="76"/>
       <c r="K19" s="157" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L19" s="158"/>
       <c r="M19" s="158"/>
       <c r="N19" s="158"/>
       <c r="O19" s="159"/>
       <c r="P19" s="157" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="158"/>
       <c r="R19" s="158"/>
       <c r="S19" s="158"/>
       <c r="T19" s="159"/>
       <c r="U19" s="157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V19" s="158"/>
       <c r="W19" s="158"/>
@@ -12994,39 +12991,39 @@
     </row>
     <row r="20" spans="1:34" ht="12.75" customHeight="1">
       <c r="A20" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="95"/>
       <c r="C20" s="95"/>
       <c r="D20" s="95"/>
       <c r="E20" s="96"/>
       <c r="F20" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" s="98">
         <v>50</v>
       </c>
       <c r="H20" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I20" s="76"/>
       <c r="J20" s="76"/>
       <c r="K20" s="157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L20" s="158"/>
       <c r="M20" s="158"/>
       <c r="N20" s="158"/>
       <c r="O20" s="159"/>
       <c r="P20" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="158"/>
       <c r="R20" s="158"/>
       <c r="S20" s="158"/>
       <c r="T20" s="159"/>
       <c r="U20" s="157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V20" s="158"/>
       <c r="W20" s="158"/>
@@ -13152,28 +13149,22 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="AB6:AH6"/>
-    <mergeCell ref="AB7:AH7"/>
-    <mergeCell ref="AB8:AH8"/>
-    <mergeCell ref="AB14:AH14"/>
-    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
     <mergeCell ref="AB20:AH20"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
@@ -13190,22 +13181,28 @@
     <mergeCell ref="AB19:AH19"/>
     <mergeCell ref="P19:T19"/>
     <mergeCell ref="P14:T14"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="AB6:AH6"/>
+    <mergeCell ref="AB7:AH7"/>
+    <mergeCell ref="AB8:AH8"/>
+    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13218,7 +13215,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AH4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
@@ -13421,7 +13418,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="12.75" customHeight="1">
       <c r="A1" s="137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -13458,50 +13455,50 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:34" ht="12">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="106" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="106" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="108"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="120"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="106" t="s">
+      <c r="AG2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="108"/>
+      <c r="AH2" s="120"/>
     </row>
     <row r="3" spans="1:34" ht="12">
       <c r="A3" s="133" t="str">
@@ -13544,11 +13541,11 @@
       <c r="AC3" s="138"/>
       <c r="AD3" s="134"/>
       <c r="AE3" s="133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF3" s="134"/>
       <c r="AG3" s="133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH3" s="134"/>
     </row>
@@ -13590,7 +13587,7 @@
     </row>
     <row r="5" spans="1:34" ht="12.75" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -13598,7 +13595,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="34"/>
       <c r="G5" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
@@ -13622,7 +13619,7 @@
       <c r="AA5" s="33"/>
       <c r="AB5" s="34"/>
       <c r="AC5" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD5" s="33"/>
       <c r="AE5" s="33"/>
@@ -13632,7 +13629,7 @@
     </row>
     <row r="6" spans="1:34" ht="12.75" customHeight="1">
       <c r="A6" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -13640,7 +13637,7 @@
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>
       <c r="G6" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
@@ -13678,7 +13675,7 @@
       <c r="E7" s="36"/>
       <c r="F7" s="37"/>
       <c r="G7" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
@@ -13746,7 +13743,7 @@
     </row>
     <row r="9" spans="1:34" ht="12.75" customHeight="1">
       <c r="A9" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -13754,7 +13751,7 @@
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
       <c r="G9" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="39"/>
@@ -13792,7 +13789,7 @@
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
       <c r="G10" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -13860,7 +13857,7 @@
     </row>
     <row r="12" spans="1:34" ht="12.75" customHeight="1">
       <c r="A12" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -13868,7 +13865,7 @@
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
       <c r="G12" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -13936,7 +13933,7 @@
     </row>
     <row r="14" spans="1:34" ht="12.75" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -13944,7 +13941,7 @@
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
       <c r="G14" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -13985,7 +13982,7 @@
     </row>
     <row r="16" spans="1:34" ht="12.75" customHeight="1">
       <c r="A16" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -13993,7 +13990,7 @@
       <c r="E16" s="36"/>
       <c r="F16" s="38"/>
       <c r="G16" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -14097,16 +14094,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
+    <mergeCell ref="N3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
-    <mergeCell ref="N3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14118,7 +14115,7 @@
   <dimension ref="A1:FV24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AH4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
@@ -14321,7 +14318,7 @@
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
       <c r="A1" s="137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -14358,50 +14355,50 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="106" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="106" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="106" t="s">
+      <c r="AG2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="108"/>
+      <c r="AH2" s="120"/>
     </row>
     <row r="3" spans="1:178" ht="12">
       <c r="A3" s="133" t="str">
@@ -14444,11 +14441,11 @@
       <c r="AC3" s="138"/>
       <c r="AD3" s="138"/>
       <c r="AE3" s="133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF3" s="134"/>
       <c r="AG3" s="133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH3" s="134"/>
     </row>
@@ -14490,23 +14487,25 @@
     </row>
     <row r="5" spans="1:178" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="164"/>
       <c r="C5" s="164"/>
       <c r="D5" s="164"/>
       <c r="E5" s="164"/>
       <c r="F5" s="165"/>
-      <c r="G5" s="195" t="s">
+      <c r="G5" s="169" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="79"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="169" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="171"/>
       <c r="O5" s="77"/>
       <c r="P5" s="78"/>
       <c r="Q5" s="78"/>
@@ -14680,93 +14679,93 @@
       <c r="E6" s="167"/>
       <c r="F6" s="168"/>
       <c r="G6" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="80" t="s">
+      <c r="J6" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="81" t="s">
-        <v>83</v>
-      </c>
       <c r="K6" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="80" t="s">
+      <c r="N6" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="81" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="80" t="s">
+      <c r="R6" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="R6" s="81" t="s">
-        <v>83</v>
-      </c>
       <c r="S6" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6" s="80" t="s">
+      <c r="V6" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="V6" s="81" t="s">
-        <v>83</v>
-      </c>
       <c r="W6" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="X6" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y6" s="80" t="s">
+      <c r="Z6" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="Z6" s="81" t="s">
-        <v>83</v>
-      </c>
       <c r="AA6" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="AB6" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC6" s="80" t="s">
+      <c r="AD6" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="AD6" s="81" t="s">
-        <v>83</v>
-      </c>
       <c r="AE6" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF6" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG6" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="AF6" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG6" s="80" t="s">
+      <c r="AH6" s="81" t="s">
         <v>82</v>
-      </c>
-      <c r="AH6" s="81" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -14774,17 +14773,16 @@
       <c r="E7" s="36"/>
       <c r="F7" s="15"/>
       <c r="G7" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="76"/>
+        <v>83</v>
+      </c>
+      <c r="K7" s="76" t="s">
+        <v>83</v>
+      </c>
       <c r="L7" s="76"/>
       <c r="M7" s="76"/>
-      <c r="N7" s="15"/>
+      <c r="N7" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="O7" s="76"/>
       <c r="P7" s="76"/>
       <c r="Q7" s="76"/>
@@ -14808,7 +14806,7 @@
     </row>
     <row r="8" spans="1:178" ht="12.75" customHeight="1">
       <c r="A8" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -14816,12 +14814,14 @@
       <c r="E8" s="36"/>
       <c r="F8" s="15"/>
       <c r="G8" s="76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="76"/>
       <c r="I8" s="76"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="76"/>
+      <c r="K8" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="L8" s="76"/>
       <c r="M8" s="76"/>
       <c r="N8" s="15"/>
@@ -15423,7 +15423,7 @@
       <c r="AH24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A5:F6"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
@@ -15436,6 +15436,7 @@
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15650,7 +15651,7 @@
   <sheetData>
     <row r="1" spans="1:178" ht="12">
       <c r="A1" s="137" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -15687,52 +15688,52 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="106" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="106" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="106" t="s">
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="108"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="120"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="106" t="s">
+      <c r="AG2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="108"/>
+      <c r="AH2" s="120"/>
     </row>
     <row r="3" spans="1:178" ht="12">
       <c r="A3" s="133" t="str">
@@ -15769,7 +15770,7 @@
       <c r="W3" s="138"/>
       <c r="X3" s="134"/>
       <c r="Y3" s="133" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z3" s="138"/>
       <c r="AA3" s="138"/>
@@ -15777,11 +15778,11 @@
       <c r="AC3" s="138"/>
       <c r="AD3" s="134"/>
       <c r="AE3" s="133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF3" s="134"/>
       <c r="AG3" s="133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH3" s="134"/>
     </row>
@@ -15822,100 +15823,100 @@
       <c r="AH4" s="136"/>
     </row>
     <row r="5" spans="1:178" ht="12">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="172" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="177" t="s">
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="L5" s="178"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="178"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="183" t="s">
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="182"/>
+      <c r="AA5" s="183"/>
+      <c r="AB5" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="185"/>
+      <c r="AD5" s="185"/>
+      <c r="AE5" s="185"/>
+      <c r="AF5" s="185"/>
+      <c r="AG5" s="185"/>
+      <c r="AH5" s="186"/>
+    </row>
+    <row r="6" spans="1:178" s="11" customFormat="1" ht="12">
+      <c r="A6" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="185"/>
-      <c r="AB5" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="187"/>
-      <c r="AD5" s="187"/>
-      <c r="AE5" s="187"/>
-      <c r="AF5" s="187"/>
-      <c r="AG5" s="187"/>
-      <c r="AH5" s="188"/>
-    </row>
-    <row r="6" spans="1:178" s="11" customFormat="1" ht="12">
-      <c r="A6" s="192" t="s">
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="33" t="s">
+      <c r="J6" s="34"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="192" t="s">
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="32" t="s">
         <v>109</v>
-      </c>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="32" t="s">
-        <v>110</v>
       </c>
       <c r="W6" s="33"/>
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB6" s="189"/>
-      <c r="AC6" s="190"/>
-      <c r="AD6" s="190"/>
-      <c r="AE6" s="190"/>
-      <c r="AF6" s="190"/>
-      <c r="AG6" s="190"/>
-      <c r="AH6" s="191"/>
+        <v>110</v>
+      </c>
+      <c r="AB6" s="187"/>
+      <c r="AC6" s="188"/>
+      <c r="AD6" s="188"/>
+      <c r="AE6" s="188"/>
+      <c r="AF6" s="188"/>
+      <c r="AG6" s="188"/>
+      <c r="AH6" s="189"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
@@ -16063,49 +16064,49 @@
     </row>
     <row r="7" spans="1:178" ht="12">
       <c r="A7" s="157" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="158"/>
       <c r="C7" s="158"/>
       <c r="D7" s="158"/>
       <c r="E7" s="159"/>
       <c r="F7" s="76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" s="76">
         <v>10</v>
       </c>
-      <c r="I7" s="169" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="170"/>
-      <c r="K7" s="171">
+      <c r="I7" s="193" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="194"/>
+      <c r="K7" s="195">
         <v>1</v>
       </c>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="173"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="197"/>
       <c r="Q7" s="157" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R7" s="158"/>
       <c r="S7" s="158"/>
       <c r="T7" s="158"/>
       <c r="U7" s="159"/>
       <c r="V7" s="157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W7" s="158"/>
       <c r="X7" s="158"/>
       <c r="Y7" s="158"/>
       <c r="Z7" s="159"/>
       <c r="AA7" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB7" s="36"/>
       <c r="AC7" s="36"/>
@@ -16837,6 +16838,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:P6"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="AB5:AH6"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
@@ -16849,17 +16861,6 @@
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:P6"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="AB5:AH6"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:P7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16872,7 +16873,7 @@
   <dimension ref="A1:FV44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AH1"/>
+      <selection activeCell="F18" sqref="F18:W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
@@ -17112,52 +17113,52 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:178">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="106" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="106" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="106" t="s">
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="108"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="120"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="106" t="s">
+      <c r="AG2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="108"/>
+      <c r="AH2" s="120"/>
     </row>
     <row r="3" spans="1:178">
       <c r="A3" s="133" t="str">
@@ -17194,7 +17195,7 @@
       <c r="W3" s="138"/>
       <c r="X3" s="134"/>
       <c r="Y3" s="198" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z3" s="199"/>
       <c r="AA3" s="199"/>
@@ -17202,11 +17203,11 @@
       <c r="AC3" s="199"/>
       <c r="AD3" s="200"/>
       <c r="AE3" s="133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF3" s="134"/>
       <c r="AG3" s="133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH3" s="134"/>
     </row>
@@ -17429,7 +17430,7 @@
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -17463,7 +17464,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -17496,7 +17497,7 @@
       <c r="A8" s="12"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -17528,7 +17529,7 @@
       <c r="A9" s="12"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -17575,7 +17576,7 @@
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -17600,7 +17601,7 @@
       <c r="A12" s="12"/>
       <c r="B12" s="67"/>
       <c r="C12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -17625,10 +17626,10 @@
       <c r="A13" s="12"/>
       <c r="B13" s="67"/>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I13" s="9"/>
       <c r="O13" s="9"/>
@@ -17680,10 +17681,10 @@
       <c r="A15" s="12"/>
       <c r="B15" s="67"/>
       <c r="C15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="AH15" s="57"/>
       <c r="AI15" s="9"/>
@@ -17695,7 +17696,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -17762,12 +17763,12 @@
       <c r="A18" s="12"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -18664,5 +18665,6 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_社員情報一覧画面（陶）.xlsx
+++ b/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_社員情報一覧画面（陶）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf4bb4a0a505561/桌面/新しいフォルダー/02_詳細設計書/01_詳細設計書/チーム1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E446F5-12D8-4D18-ADE8-9262097EF339}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E17B3445-E7BD-4020-B948-03F4704B4BA5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="163">
   <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
@@ -1322,6 +1322,18 @@
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ver1.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022/09/13</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>陶</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1617,7 +1629,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1788,36 +1800,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1875,6 +1857,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1992,6 +2004,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2055,21 +2082,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2087,6 +2099,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4328,7 +4349,7 @@
   <dimension ref="A1:FT38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:AA13"/>
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
@@ -4776,72 +4797,72 @@
     </row>
     <row r="4" spans="1:176" ht="15" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
       <c r="AF4" s="13"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
       <c r="AF5" s="13"/>
     </row>
     <row r="6" spans="1:176" ht="15" customHeight="1">
@@ -5013,124 +5034,124 @@
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="118" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="118" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="118" t="s">
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="118" t="s">
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="120"/>
+      <c r="AE11" s="108"/>
       <c r="AF11" s="13"/>
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="121" t="s">
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="127" t="s">
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="129"/>
-      <c r="AB12" s="127" t="s">
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="AC12" s="129"/>
-      <c r="AD12" s="121" t="s">
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AE12" s="123"/>
+      <c r="AE12" s="111"/>
       <c r="AF12" s="13"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="130"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="126"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="120"/>
+      <c r="AD13" s="112"/>
+      <c r="AE13" s="114"/>
       <c r="AF13" s="13"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
@@ -5335,630 +5356,636 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="114" t="s">
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="114" t="s">
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="114" t="s">
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="AD20" s="115"/>
-      <c r="AE20" s="116"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="104"/>
       <c r="AF20" s="13"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="108" t="s">
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111" t="s">
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="112"/>
-      <c r="Y21" s="112"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="112"/>
-      <c r="AB21" s="113"/>
-      <c r="AC21" s="108" t="s">
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="125"/>
+      <c r="X21" s="125"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="125"/>
+      <c r="AB21" s="126"/>
+      <c r="AC21" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="110"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="123"/>
       <c r="AF21" s="13"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="102"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="104"/>
+      <c r="B22" s="204" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="205"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="131"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="131"/>
+      <c r="Z22" s="131"/>
+      <c r="AA22" s="131"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="204" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD22" s="205"/>
+      <c r="AE22" s="206"/>
       <c r="AF22" s="13"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="103"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="103"/>
-      <c r="Y23" s="103"/>
-      <c r="Z23" s="103"/>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="102"/>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="104"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="131"/>
+      <c r="U23" s="131"/>
+      <c r="V23" s="131"/>
+      <c r="W23" s="131"/>
+      <c r="X23" s="131"/>
+      <c r="Y23" s="131"/>
+      <c r="Z23" s="131"/>
+      <c r="AA23" s="131"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="130"/>
+      <c r="AD23" s="131"/>
+      <c r="AE23" s="132"/>
       <c r="AF23" s="13"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="104"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="131"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="131"/>
+      <c r="Y24" s="131"/>
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="131"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="130"/>
+      <c r="AD24" s="131"/>
+      <c r="AE24" s="132"/>
       <c r="AF24" s="13"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="103"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="104"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="130"/>
+      <c r="AD25" s="131"/>
+      <c r="AE25" s="132"/>
       <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="103"/>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="103"/>
-      <c r="AE26" s="104"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="131"/>
+      <c r="X26" s="131"/>
+      <c r="Y26" s="131"/>
+      <c r="Z26" s="131"/>
+      <c r="AA26" s="131"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="130"/>
+      <c r="AD26" s="131"/>
+      <c r="AE26" s="132"/>
       <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="104"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="131"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="131"/>
+      <c r="X27" s="131"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="131"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="130"/>
+      <c r="AD27" s="131"/>
+      <c r="AE27" s="132"/>
       <c r="AF27" s="13"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="103"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="103"/>
-      <c r="AE28" s="104"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="131"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="131"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="131"/>
+      <c r="X28" s="131"/>
+      <c r="Y28" s="131"/>
+      <c r="Z28" s="131"/>
+      <c r="AA28" s="131"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="130"/>
+      <c r="AD28" s="131"/>
+      <c r="AE28" s="132"/>
       <c r="AF28" s="13"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103"/>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="102"/>
-      <c r="AD29" s="103"/>
-      <c r="AE29" s="104"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="131"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="131"/>
+      <c r="X29" s="131"/>
+      <c r="Y29" s="131"/>
+      <c r="Z29" s="131"/>
+      <c r="AA29" s="131"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="130"/>
+      <c r="AD29" s="131"/>
+      <c r="AE29" s="132"/>
       <c r="AF29" s="13"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="102"/>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="104"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="131"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="131"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="131"/>
+      <c r="X30" s="131"/>
+      <c r="Y30" s="131"/>
+      <c r="Z30" s="131"/>
+      <c r="AA30" s="131"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="130"/>
+      <c r="AD30" s="131"/>
+      <c r="AE30" s="132"/>
       <c r="AF30" s="13"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="103"/>
-      <c r="AE31" s="104"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="131"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="131"/>
+      <c r="X31" s="131"/>
+      <c r="Y31" s="131"/>
+      <c r="Z31" s="131"/>
+      <c r="AA31" s="131"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="130"/>
+      <c r="AD31" s="131"/>
+      <c r="AE31" s="132"/>
       <c r="AF31" s="13"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="102"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="104"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="131"/>
+      <c r="X32" s="131"/>
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="131"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="130"/>
+      <c r="AD32" s="131"/>
+      <c r="AE32" s="132"/>
       <c r="AF32" s="13"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="102"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="104"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="131"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="131"/>
+      <c r="X33" s="131"/>
+      <c r="Y33" s="131"/>
+      <c r="Z33" s="131"/>
+      <c r="AA33" s="131"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="130"/>
+      <c r="AD33" s="131"/>
+      <c r="AE33" s="132"/>
       <c r="AF33" s="13"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="12"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="104"/>
-      <c r="AC34" s="102"/>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="104"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="131"/>
+      <c r="L34" s="131"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="131"/>
+      <c r="P34" s="131"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="131"/>
+      <c r="S34" s="131"/>
+      <c r="T34" s="131"/>
+      <c r="U34" s="131"/>
+      <c r="V34" s="131"/>
+      <c r="W34" s="131"/>
+      <c r="X34" s="131"/>
+      <c r="Y34" s="131"/>
+      <c r="Z34" s="131"/>
+      <c r="AA34" s="131"/>
+      <c r="AB34" s="132"/>
+      <c r="AC34" s="130"/>
+      <c r="AD34" s="131"/>
+      <c r="AE34" s="132"/>
       <c r="AF34" s="13"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="12"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="104"/>
-      <c r="AC35" s="102"/>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="104"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="131"/>
+      <c r="R35" s="131"/>
+      <c r="S35" s="131"/>
+      <c r="T35" s="131"/>
+      <c r="U35" s="131"/>
+      <c r="V35" s="131"/>
+      <c r="W35" s="131"/>
+      <c r="X35" s="131"/>
+      <c r="Y35" s="131"/>
+      <c r="Z35" s="131"/>
+      <c r="AA35" s="131"/>
+      <c r="AB35" s="132"/>
+      <c r="AC35" s="130"/>
+      <c r="AD35" s="131"/>
+      <c r="AE35" s="132"/>
       <c r="AF35" s="13"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="12"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="103"/>
-      <c r="AB36" s="104"/>
-      <c r="AC36" s="102"/>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="104"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="131"/>
+      <c r="R36" s="131"/>
+      <c r="S36" s="131"/>
+      <c r="T36" s="131"/>
+      <c r="U36" s="131"/>
+      <c r="V36" s="131"/>
+      <c r="W36" s="131"/>
+      <c r="X36" s="131"/>
+      <c r="Y36" s="131"/>
+      <c r="Z36" s="131"/>
+      <c r="AA36" s="131"/>
+      <c r="AB36" s="132"/>
+      <c r="AC36" s="130"/>
+      <c r="AD36" s="131"/>
+      <c r="AE36" s="132"/>
       <c r="AF36" s="13"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="12"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="103"/>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="103"/>
-      <c r="S37" s="103"/>
-      <c r="T37" s="103"/>
-      <c r="U37" s="103"/>
-      <c r="V37" s="103"/>
-      <c r="W37" s="103"/>
-      <c r="X37" s="103"/>
-      <c r="Y37" s="103"/>
-      <c r="Z37" s="103"/>
-      <c r="AA37" s="103"/>
-      <c r="AB37" s="104"/>
-      <c r="AC37" s="102"/>
-      <c r="AD37" s="103"/>
-      <c r="AE37" s="104"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
+      <c r="S37" s="131"/>
+      <c r="T37" s="131"/>
+      <c r="U37" s="131"/>
+      <c r="V37" s="131"/>
+      <c r="W37" s="131"/>
+      <c r="X37" s="131"/>
+      <c r="Y37" s="131"/>
+      <c r="Z37" s="131"/>
+      <c r="AA37" s="131"/>
+      <c r="AB37" s="132"/>
+      <c r="AC37" s="130"/>
+      <c r="AD37" s="131"/>
+      <c r="AE37" s="132"/>
       <c r="AF37" s="13"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -5997,6 +6024,74 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="J20:AB20"/>
@@ -6012,74 +6107,6 @@
     <mergeCell ref="M12:AA13"/>
     <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6331,52 +6358,52 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:178">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="118" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="118" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="118" t="s">
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="120"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="108"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="118" t="s">
+      <c r="AG2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="120"/>
+      <c r="AH2" s="108"/>
     </row>
     <row r="3" spans="1:178">
       <c r="A3" s="133" t="str">
@@ -8220,49 +8247,49 @@
       <c r="AG1" s="137"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="118" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="118" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="120"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="108"/>
       <c r="AD2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="22"/>
-      <c r="AF2" s="118" t="s">
+      <c r="AF2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="120"/>
+      <c r="AG2" s="108"/>
     </row>
     <row r="3" spans="1:177" ht="12">
       <c r="A3" s="133" t="str">
@@ -9785,16 +9812,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10046,49 +10073,49 @@
       <c r="AG1" s="137"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="118" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="118" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="120"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="108"/>
       <c r="AD2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="22"/>
-      <c r="AF2" s="118" t="s">
+      <c r="AF2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="120"/>
+      <c r="AG2" s="108"/>
     </row>
     <row r="3" spans="1:177" ht="12">
       <c r="A3" s="133" t="str">
@@ -11698,16 +11725,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="B15:C15"/>
@@ -11723,6 +11740,16 @@
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P14:R14"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12026,52 +12053,52 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="118" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="118" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="118" t="s">
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="120"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="108"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="118" t="s">
+      <c r="AG2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="120"/>
+      <c r="AH2" s="108"/>
     </row>
     <row r="3" spans="1:178" ht="12">
       <c r="A3" s="133" t="str">
@@ -13149,6 +13176,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="AB6:AH6"/>
+    <mergeCell ref="AB7:AH7"/>
+    <mergeCell ref="AB8:AH8"/>
+    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="AB20:AH20"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="AB17:AH17"/>
+    <mergeCell ref="AB18:AH18"/>
+    <mergeCell ref="AB19:AH19"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P14:T14"/>
     <mergeCell ref="U20:AA20"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A12:E12"/>
@@ -13165,44 +13230,6 @@
     <mergeCell ref="P18:T18"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="K16:O16"/>
-    <mergeCell ref="AB20:AH20"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="AB17:AH17"/>
-    <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="AB19:AH19"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="AB6:AH6"/>
-    <mergeCell ref="AB7:AH7"/>
-    <mergeCell ref="AB8:AH8"/>
-    <mergeCell ref="AB14:AH14"/>
-    <mergeCell ref="AB15:AH15"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13455,50 +13482,50 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:34" ht="12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="118" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="118" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="120"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="108"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="118" t="s">
+      <c r="AG2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="120"/>
+      <c r="AH2" s="108"/>
     </row>
     <row r="3" spans="1:34" ht="12">
       <c r="A3" s="133" t="str">
@@ -14094,16 +14121,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
     <mergeCell ref="N3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14355,50 +14382,50 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="118" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="118" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="119"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="118" t="s">
+      <c r="AG2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="120"/>
+      <c r="AH2" s="108"/>
     </row>
     <row r="3" spans="1:178" ht="12">
       <c r="A3" s="133" t="str">
@@ -15688,52 +15715,52 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="118" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="118" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="118" t="s">
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="120"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="108"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="118" t="s">
+      <c r="AG2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="120"/>
+      <c r="AH2" s="108"/>
     </row>
     <row r="3" spans="1:178" ht="12">
       <c r="A3" s="133" t="str">
@@ -15823,57 +15850,57 @@
       <c r="AH4" s="136"/>
     </row>
     <row r="5" spans="1:178" ht="12">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="175" t="s">
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="180" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="176"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="181" t="s">
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="182"/>
-      <c r="U5" s="182"/>
-      <c r="V5" s="182"/>
-      <c r="W5" s="182"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="182"/>
-      <c r="Z5" s="182"/>
-      <c r="AA5" s="183"/>
-      <c r="AB5" s="184" t="s">
+      <c r="R5" s="187"/>
+      <c r="S5" s="187"/>
+      <c r="T5" s="187"/>
+      <c r="U5" s="187"/>
+      <c r="V5" s="187"/>
+      <c r="W5" s="187"/>
+      <c r="X5" s="187"/>
+      <c r="Y5" s="187"/>
+      <c r="Z5" s="187"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="185"/>
-      <c r="AD5" s="185"/>
-      <c r="AE5" s="185"/>
-      <c r="AF5" s="185"/>
-      <c r="AG5" s="185"/>
-      <c r="AH5" s="186"/>
+      <c r="AC5" s="190"/>
+      <c r="AD5" s="190"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="190"/>
+      <c r="AG5" s="190"/>
+      <c r="AH5" s="191"/>
     </row>
     <row r="6" spans="1:178" s="11" customFormat="1" ht="12">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="197"/>
       <c r="F6" s="84" t="s">
         <v>65</v>
       </c>
@@ -15887,19 +15914,19 @@
         <v>107</v>
       </c>
       <c r="J6" s="34"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="190" t="s">
+      <c r="K6" s="183"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="195" t="s">
         <v>108</v>
       </c>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="192"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="197"/>
       <c r="V6" s="32" t="s">
         <v>109</v>
       </c>
@@ -15910,13 +15937,13 @@
       <c r="AA6" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AB6" s="187"/>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="188"/>
-      <c r="AE6" s="188"/>
-      <c r="AF6" s="188"/>
-      <c r="AG6" s="188"/>
-      <c r="AH6" s="189"/>
+      <c r="AB6" s="192"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="193"/>
+      <c r="AH6" s="194"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
@@ -16079,18 +16106,18 @@
       <c r="H7" s="76">
         <v>10</v>
       </c>
-      <c r="I7" s="193" t="s">
+      <c r="I7" s="172" t="s">
         <v>146</v>
       </c>
-      <c r="J7" s="194"/>
-      <c r="K7" s="195">
+      <c r="J7" s="173"/>
+      <c r="K7" s="174">
         <v>1</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="197"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="176"/>
       <c r="Q7" s="157" t="s">
         <v>144</v>
       </c>
@@ -16838,17 +16865,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:P6"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="AB5:AH6"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
@@ -16861,6 +16877,17 @@
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:P6"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="AB5:AH6"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:P7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17113,52 +17140,52 @@
       <c r="AH1" s="137"/>
     </row>
     <row r="2" spans="1:178">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="118" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="118" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="118" t="s">
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="120"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="108"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="118" t="s">
+      <c r="AG2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="120"/>
+      <c r="AH2" s="108"/>
     </row>
     <row r="3" spans="1:178">
       <c r="A3" s="133" t="str">

--- a/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_社員情報一覧画面（陶）.xlsx
+++ b/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_社員情報一覧画面（陶）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf4bb4a0a505561/桌面/基本設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf4bb4a0a505561/桌面/新しいフォルダー/02_詳細設計書/01_詳細設計書/チーム1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{A23AEBB1-F10E-48FC-9718-FB6B3DE63490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF1010CF-8FE8-401C-9E20-991DD79D21F1}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{A23AEBB1-F10E-48FC-9718-FB6B3DE63490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E9ECEA0-37FB-431D-B7B3-26EBF14DBB7F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="15852" windowHeight="11952" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1964,6 +1964,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2020,45 +2059,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2186,21 +2186,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2263,6 +2248,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3702,176 +3702,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>85079</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1851</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="1809750"/>
-          <a:ext cx="5171429" cy="428571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9429750" y="1933575"/>
-          <a:ext cx="4010025" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8220075" y="2105025"/>
-          <a:ext cx="1209675" cy="1019175"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -4214,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
@@ -4663,72 +4493,72 @@
     </row>
     <row r="4" spans="1:176" ht="15" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
       <c r="AF4" s="13"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
       <c r="AF5" s="13"/>
     </row>
     <row r="6" spans="1:176" ht="15" customHeight="1">
@@ -4900,124 +4730,124 @@
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="105" t="s">
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="105" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="105" t="s">
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="121"/>
+      <c r="Y11" s="121"/>
+      <c r="Z11" s="121"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="105" t="s">
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="107"/>
+      <c r="AE11" s="122"/>
       <c r="AF11" s="13"/>
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="108" t="s">
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="114" t="s">
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="115"/>
-      <c r="X12" s="115"/>
-      <c r="Y12" s="115"/>
-      <c r="Z12" s="115"/>
-      <c r="AA12" s="116"/>
-      <c r="AB12" s="114" t="s">
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="131"/>
+      <c r="AB12" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="AC12" s="116"/>
-      <c r="AD12" s="108" t="s">
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AE12" s="110"/>
+      <c r="AE12" s="125"/>
       <c r="AF12" s="13"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="113"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="128"/>
       <c r="AF13" s="13"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
@@ -5222,638 +5052,638 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="101" t="s">
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="101" t="s">
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="101" t="s">
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AD20" s="102"/>
-      <c r="AE20" s="103"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="118"/>
       <c r="AF20" s="13"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="120" t="s">
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="123" t="s">
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="124"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="125"/>
-      <c r="AC21" s="120" t="s">
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="122"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="109"/>
       <c r="AF21" s="13"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="120" t="s">
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="129" t="s">
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="130"/>
-      <c r="V22" s="130"/>
-      <c r="W22" s="130"/>
-      <c r="X22" s="130"/>
-      <c r="Y22" s="130"/>
-      <c r="Z22" s="130"/>
-      <c r="AA22" s="130"/>
-      <c r="AB22" s="131"/>
-      <c r="AC22" s="120" t="s">
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="103"/>
+      <c r="AC22" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AD22" s="121"/>
-      <c r="AE22" s="122"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="109"/>
       <c r="AF22" s="13"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="130"/>
-      <c r="U23" s="130"/>
-      <c r="V23" s="130"/>
-      <c r="W23" s="130"/>
-      <c r="X23" s="130"/>
-      <c r="Y23" s="130"/>
-      <c r="Z23" s="130"/>
-      <c r="AA23" s="130"/>
-      <c r="AB23" s="131"/>
-      <c r="AC23" s="129"/>
-      <c r="AD23" s="130"/>
-      <c r="AE23" s="131"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="103"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="103"/>
       <c r="AF23" s="13"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="130"/>
-      <c r="U24" s="130"/>
-      <c r="V24" s="130"/>
-      <c r="W24" s="130"/>
-      <c r="X24" s="130"/>
-      <c r="Y24" s="130"/>
-      <c r="Z24" s="130"/>
-      <c r="AA24" s="130"/>
-      <c r="AB24" s="131"/>
-      <c r="AC24" s="129"/>
-      <c r="AD24" s="130"/>
-      <c r="AE24" s="131"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="103"/>
       <c r="AF24" s="13"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="130"/>
-      <c r="U25" s="130"/>
-      <c r="V25" s="130"/>
-      <c r="W25" s="130"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="130"/>
-      <c r="Z25" s="130"/>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="131"/>
-      <c r="AC25" s="129"/>
-      <c r="AD25" s="130"/>
-      <c r="AE25" s="131"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="103"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="103"/>
       <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="130"/>
-      <c r="U26" s="130"/>
-      <c r="V26" s="130"/>
-      <c r="W26" s="130"/>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="130"/>
-      <c r="Z26" s="130"/>
-      <c r="AA26" s="130"/>
-      <c r="AB26" s="131"/>
-      <c r="AC26" s="129"/>
-      <c r="AD26" s="130"/>
-      <c r="AE26" s="131"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="101"/>
+      <c r="AD26" s="102"/>
+      <c r="AE26" s="103"/>
       <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="130"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="130"/>
-      <c r="Z27" s="130"/>
-      <c r="AA27" s="130"/>
-      <c r="AB27" s="131"/>
-      <c r="AC27" s="129"/>
-      <c r="AD27" s="130"/>
-      <c r="AE27" s="131"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="102"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="102"/>
+      <c r="AE27" s="103"/>
       <c r="AF27" s="13"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="130"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="130"/>
-      <c r="T28" s="130"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="130"/>
-      <c r="Z28" s="130"/>
-      <c r="AA28" s="130"/>
-      <c r="AB28" s="131"/>
-      <c r="AC28" s="129"/>
-      <c r="AD28" s="130"/>
-      <c r="AE28" s="131"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102"/>
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="102"/>
+      <c r="AE28" s="103"/>
       <c r="AF28" s="13"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="130"/>
-      <c r="W29" s="130"/>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="130"/>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="131"/>
-      <c r="AC29" s="129"/>
-      <c r="AD29" s="130"/>
-      <c r="AE29" s="131"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="103"/>
       <c r="AF29" s="13"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="131"/>
-      <c r="AC30" s="129"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="131"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="103"/>
       <c r="AF30" s="13"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="131"/>
-      <c r="AC31" s="129"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="131"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="103"/>
+      <c r="AC31" s="101"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="103"/>
       <c r="AF31" s="13"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="130"/>
-      <c r="U32" s="130"/>
-      <c r="V32" s="130"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="130"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="129"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="131"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="103"/>
+      <c r="AC32" s="101"/>
+      <c r="AD32" s="102"/>
+      <c r="AE32" s="103"/>
       <c r="AF32" s="13"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="131"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="131"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="101"/>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="103"/>
       <c r="AF33" s="13"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="12"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="130"/>
-      <c r="T34" s="130"/>
-      <c r="U34" s="130"/>
-      <c r="V34" s="130"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="130"/>
-      <c r="Z34" s="130"/>
-      <c r="AA34" s="130"/>
-      <c r="AB34" s="131"/>
-      <c r="AC34" s="129"/>
-      <c r="AD34" s="130"/>
-      <c r="AE34" s="131"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="102"/>
+      <c r="T34" s="102"/>
+      <c r="U34" s="102"/>
+      <c r="V34" s="102"/>
+      <c r="W34" s="102"/>
+      <c r="X34" s="102"/>
+      <c r="Y34" s="102"/>
+      <c r="Z34" s="102"/>
+      <c r="AA34" s="102"/>
+      <c r="AB34" s="103"/>
+      <c r="AC34" s="101"/>
+      <c r="AD34" s="102"/>
+      <c r="AE34" s="103"/>
       <c r="AF34" s="13"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="12"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="130"/>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="130"/>
-      <c r="T35" s="130"/>
-      <c r="U35" s="130"/>
-      <c r="V35" s="130"/>
-      <c r="W35" s="130"/>
-      <c r="X35" s="130"/>
-      <c r="Y35" s="130"/>
-      <c r="Z35" s="130"/>
-      <c r="AA35" s="130"/>
-      <c r="AB35" s="131"/>
-      <c r="AC35" s="129"/>
-      <c r="AD35" s="130"/>
-      <c r="AE35" s="131"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="102"/>
+      <c r="T35" s="102"/>
+      <c r="U35" s="102"/>
+      <c r="V35" s="102"/>
+      <c r="W35" s="102"/>
+      <c r="X35" s="102"/>
+      <c r="Y35" s="102"/>
+      <c r="Z35" s="102"/>
+      <c r="AA35" s="102"/>
+      <c r="AB35" s="103"/>
+      <c r="AC35" s="101"/>
+      <c r="AD35" s="102"/>
+      <c r="AE35" s="103"/>
       <c r="AF35" s="13"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="12"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="P36" s="130"/>
-      <c r="Q36" s="130"/>
-      <c r="R36" s="130"/>
-      <c r="S36" s="130"/>
-      <c r="T36" s="130"/>
-      <c r="U36" s="130"/>
-      <c r="V36" s="130"/>
-      <c r="W36" s="130"/>
-      <c r="X36" s="130"/>
-      <c r="Y36" s="130"/>
-      <c r="Z36" s="130"/>
-      <c r="AA36" s="130"/>
-      <c r="AB36" s="131"/>
-      <c r="AC36" s="129"/>
-      <c r="AD36" s="130"/>
-      <c r="AE36" s="131"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="102"/>
+      <c r="U36" s="102"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="102"/>
+      <c r="X36" s="102"/>
+      <c r="Y36" s="102"/>
+      <c r="Z36" s="102"/>
+      <c r="AA36" s="102"/>
+      <c r="AB36" s="103"/>
+      <c r="AC36" s="101"/>
+      <c r="AD36" s="102"/>
+      <c r="AE36" s="103"/>
       <c r="AF36" s="13"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="12"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="130"/>
-      <c r="O37" s="130"/>
-      <c r="P37" s="130"/>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="130"/>
-      <c r="S37" s="130"/>
-      <c r="T37" s="130"/>
-      <c r="U37" s="130"/>
-      <c r="V37" s="130"/>
-      <c r="W37" s="130"/>
-      <c r="X37" s="130"/>
-      <c r="Y37" s="130"/>
-      <c r="Z37" s="130"/>
-      <c r="AA37" s="130"/>
-      <c r="AB37" s="131"/>
-      <c r="AC37" s="129"/>
-      <c r="AD37" s="130"/>
-      <c r="AE37" s="131"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="102"/>
+      <c r="S37" s="102"/>
+      <c r="T37" s="102"/>
+      <c r="U37" s="102"/>
+      <c r="V37" s="102"/>
+      <c r="W37" s="102"/>
+      <c r="X37" s="102"/>
+      <c r="Y37" s="102"/>
+      <c r="Z37" s="102"/>
+      <c r="AA37" s="102"/>
+      <c r="AB37" s="103"/>
+      <c r="AC37" s="101"/>
+      <c r="AD37" s="102"/>
+      <c r="AE37" s="103"/>
       <c r="AF37" s="13"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -5892,74 +5722,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="J20:AB20"/>
@@ -5975,6 +5737,74 @@
     <mergeCell ref="M12:AA13"/>
     <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6226,36 +6056,36 @@
       <c r="AH1" s="139"/>
     </row>
     <row r="2" spans="1:178">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="105" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="107"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="122"/>
       <c r="Y2" s="140" t="s">
         <v>18</v>
       </c>
@@ -6268,10 +6098,10 @@
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="105" t="s">
+      <c r="AG2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="107"/>
+      <c r="AH2" s="122"/>
     </row>
     <row r="3" spans="1:178">
       <c r="A3" s="135" t="str">
@@ -8115,49 +7945,49 @@
       <c r="AG1" s="139"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="105" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="107"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="122"/>
       <c r="AD2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="22"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AF2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="107"/>
+      <c r="AG2" s="122"/>
     </row>
     <row r="3" spans="1:177" ht="12">
       <c r="A3" s="135" t="str">
@@ -9707,16 +9537,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9968,49 +9798,49 @@
       <c r="AG1" s="139"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="105" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="107"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="122"/>
       <c r="AD2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="22"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AF2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="107"/>
+      <c r="AG2" s="122"/>
     </row>
     <row r="3" spans="1:177" ht="12">
       <c r="A3" s="135" t="str">
@@ -11620,6 +11450,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="B15:C15"/>
@@ -11635,16 +11475,6 @@
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P14:R14"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11948,52 +11778,52 @@
       <c r="AH1" s="139"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="105" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="105" t="s">
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="107"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="122"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="105" t="s">
+      <c r="AG2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="107"/>
+      <c r="AH2" s="122"/>
     </row>
     <row r="3" spans="1:178" ht="12">
       <c r="A3" s="135" t="str">
@@ -13091,28 +12921,22 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="AB6:AH6"/>
-    <mergeCell ref="AB7:AH7"/>
-    <mergeCell ref="AB8:AH8"/>
-    <mergeCell ref="AB14:AH14"/>
-    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
     <mergeCell ref="AB20:AH20"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
@@ -13129,22 +12953,28 @@
     <mergeCell ref="AB19:AH19"/>
     <mergeCell ref="P19:T19"/>
     <mergeCell ref="P14:T14"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="AB6:AH6"/>
+    <mergeCell ref="AB7:AH7"/>
+    <mergeCell ref="AB8:AH8"/>
+    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13397,50 +13227,50 @@
       <c r="AH1" s="139"/>
     </row>
     <row r="2" spans="1:34" ht="12">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="105" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="107"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="122"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="105" t="s">
+      <c r="AG2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="107"/>
+      <c r="AH2" s="122"/>
     </row>
     <row r="3" spans="1:34" ht="12">
       <c r="A3" s="135" t="str">
@@ -13617,12 +13447,12 @@
       <c r="E7" s="36"/>
       <c r="F7" s="37"/>
       <c r="G7" s="90"/>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="90"/>
       <c r="M7" s="90"/>
       <c r="N7" s="90"/>
@@ -13805,12 +13635,12 @@
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
       <c r="G12" s="36"/>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
@@ -14251,21 +14081,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
+    <mergeCell ref="N3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:U17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I19:L19"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
-    <mergeCell ref="N3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14517,50 +14347,50 @@
       <c r="AH1" s="139"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="105" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="105" t="s">
+      <c r="AG2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="107"/>
+      <c r="AH2" s="122"/>
     </row>
     <row r="3" spans="1:178" ht="12">
       <c r="A3" s="135" t="str">
@@ -15851,52 +15681,52 @@
       <c r="AH1" s="139"/>
     </row>
     <row r="2" spans="1:178" ht="12">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="105" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="105" t="s">
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="107"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="122"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="105" t="s">
+      <c r="AG2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="107"/>
+      <c r="AH2" s="122"/>
     </row>
     <row r="3" spans="1:178" ht="12">
       <c r="A3" s="135" t="str">
@@ -15986,57 +15816,57 @@
       <c r="AH4" s="138"/>
     </row>
     <row r="5" spans="1:178" ht="12">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="185" t="s">
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="186"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="191" t="s">
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="192"/>
-      <c r="S5" s="192"/>
-      <c r="T5" s="192"/>
-      <c r="U5" s="192"/>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192"/>
-      <c r="X5" s="192"/>
-      <c r="Y5" s="192"/>
-      <c r="Z5" s="192"/>
-      <c r="AA5" s="193"/>
-      <c r="AB5" s="194" t="s">
+      <c r="R5" s="187"/>
+      <c r="S5" s="187"/>
+      <c r="T5" s="187"/>
+      <c r="U5" s="187"/>
+      <c r="V5" s="187"/>
+      <c r="W5" s="187"/>
+      <c r="X5" s="187"/>
+      <c r="Y5" s="187"/>
+      <c r="Z5" s="187"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="AC5" s="195"/>
-      <c r="AD5" s="195"/>
-      <c r="AE5" s="195"/>
-      <c r="AF5" s="195"/>
-      <c r="AG5" s="195"/>
-      <c r="AH5" s="196"/>
+      <c r="AC5" s="190"/>
+      <c r="AD5" s="190"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="190"/>
+      <c r="AG5" s="190"/>
+      <c r="AH5" s="191"/>
     </row>
     <row r="6" spans="1:178" s="11" customFormat="1" ht="12">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="197"/>
       <c r="F6" s="84" t="s">
         <v>63</v>
       </c>
@@ -16050,19 +15880,19 @@
         <v>99</v>
       </c>
       <c r="J6" s="34"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="189"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="189"/>
-      <c r="P6" s="190"/>
-      <c r="Q6" s="200" t="s">
+      <c r="K6" s="183"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="201"/>
-      <c r="S6" s="201"/>
-      <c r="T6" s="201"/>
-      <c r="U6" s="202"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="197"/>
       <c r="V6" s="32" t="s">
         <v>101</v>
       </c>
@@ -16073,13 +15903,13 @@
       <c r="AA6" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="AB6" s="197"/>
-      <c r="AC6" s="198"/>
-      <c r="AD6" s="198"/>
-      <c r="AE6" s="198"/>
-      <c r="AF6" s="198"/>
-      <c r="AG6" s="198"/>
-      <c r="AH6" s="199"/>
+      <c r="AB6" s="192"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="193"/>
+      <c r="AH6" s="194"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
@@ -16242,18 +16072,18 @@
       <c r="H7" s="76">
         <v>10</v>
       </c>
-      <c r="I7" s="177" t="s">
+      <c r="I7" s="198" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="178"/>
-      <c r="K7" s="179">
+      <c r="J7" s="199"/>
+      <c r="K7" s="200">
         <v>1</v>
       </c>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="181"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="202"/>
       <c r="Q7" s="162" t="s">
         <v>133</v>
       </c>
@@ -17001,6 +16831,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:P6"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="AB5:AH6"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
@@ -17013,17 +16854,6 @@
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:P6"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="AB5:AH6"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:P7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17035,8 +16865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8977ABE1-1190-4B1E-9B45-3FC0AA388A92}">
   <dimension ref="A1:FV61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
@@ -17276,52 +17106,52 @@
       <c r="AH1" s="139"/>
     </row>
     <row r="2" spans="1:178">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="105" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="105" t="s">
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="107"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="122"/>
       <c r="AE2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="105" t="s">
+      <c r="AG2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="107"/>
+      <c r="AH2" s="122"/>
     </row>
     <row r="3" spans="1:178">
       <c r="A3" s="135" t="str">
@@ -19475,6 +19305,5 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>